--- a/11/1/1/Ventas comercio 1993 a 2021 - Mensual.xlsx
+++ b/11/1/1/Ventas comercio 1993 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="369">
   <si>
     <t>Serie</t>
   </si>
@@ -1118,6 +1118,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ343"/>
+  <dimension ref="A1:AJ344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14373,10 +14376,10 @@
         <v>48.56</v>
       </c>
       <c r="E332">
-        <v>90.17</v>
+        <v>90.08</v>
       </c>
       <c r="F332">
-        <v>99.87</v>
+        <v>99.83</v>
       </c>
       <c r="G332">
         <v>49.65</v>
@@ -14385,10 +14388,10 @@
         <v>125.39</v>
       </c>
       <c r="I332">
-        <v>139.99</v>
+        <v>139.93</v>
       </c>
       <c r="J332">
-        <v>87.88</v>
+        <v>87.76000000000001</v>
       </c>
       <c r="K332">
         <v>85.91</v>
@@ -14406,13 +14409,13 @@
         <v>90.42</v>
       </c>
       <c r="P332">
-        <v>64.72</v>
+        <v>64.3</v>
       </c>
       <c r="Q332">
-        <v>98.02</v>
+        <v>97.84999999999999</v>
       </c>
       <c r="R332">
-        <v>87.53</v>
+        <v>87.31999999999999</v>
       </c>
       <c r="S332">
         <v>91.43000000000001</v>
@@ -14956,49 +14959,102 @@
         <v>74.33</v>
       </c>
       <c r="E343">
-        <v>138.17</v>
+        <v>137.61</v>
       </c>
       <c r="F343">
-        <v>197.44</v>
+        <v>197.17</v>
       </c>
       <c r="G343">
-        <v>153.59</v>
+        <v>153.8</v>
       </c>
       <c r="H343">
-        <v>158.12</v>
+        <v>158.27</v>
       </c>
       <c r="I343">
-        <v>236.04</v>
+        <v>235.34</v>
       </c>
       <c r="J343">
-        <v>124.13</v>
+        <v>123.49</v>
       </c>
       <c r="K343">
-        <v>113.91</v>
+        <v>113.23</v>
       </c>
       <c r="L343">
         <v>79.17</v>
       </c>
       <c r="M343">
-        <v>124.47</v>
+        <v>123.75</v>
       </c>
       <c r="N343">
-        <v>104.88</v>
+        <v>104.91</v>
       </c>
       <c r="O343">
-        <v>117.73</v>
+        <v>117.7</v>
       </c>
       <c r="P343">
-        <v>157.6</v>
+        <v>157.4</v>
       </c>
       <c r="Q343">
-        <v>146.29</v>
+        <v>145.69</v>
       </c>
       <c r="R343">
-        <v>115.08</v>
+        <v>113.36</v>
       </c>
       <c r="S343">
-        <v>105.28</v>
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19">
+      <c r="A344" t="s">
+        <v>368</v>
+      </c>
+      <c r="B344">
+        <v>116.83</v>
+      </c>
+      <c r="E344">
+        <v>146.07</v>
+      </c>
+      <c r="F344">
+        <v>183.83</v>
+      </c>
+      <c r="G344">
+        <v>145.69</v>
+      </c>
+      <c r="H344">
+        <v>207.01</v>
+      </c>
+      <c r="I344">
+        <v>214.08</v>
+      </c>
+      <c r="J344">
+        <v>137.12</v>
+      </c>
+      <c r="K344">
+        <v>123.6</v>
+      </c>
+      <c r="L344">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="M344">
+        <v>130.12</v>
+      </c>
+      <c r="N344">
+        <v>109.43</v>
+      </c>
+      <c r="O344">
+        <v>122.39</v>
+      </c>
+      <c r="P344">
+        <v>203.34</v>
+      </c>
+      <c r="Q344">
+        <v>149.65</v>
+      </c>
+      <c r="R344">
+        <v>127.13</v>
+      </c>
+      <c r="S344">
+        <v>113.01</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/1/Ventas comercio 1993 a 2021 - Mensual.xlsx
+++ b/11/1/1/Ventas comercio 1993 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="370">
   <si>
     <t>Serie</t>
   </si>
@@ -1121,6 +1121,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ344"/>
+  <dimension ref="A1:AJ345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14429,10 +14432,10 @@
         <v>73.79000000000001</v>
       </c>
       <c r="E333">
-        <v>120.32</v>
+        <v>120.4</v>
       </c>
       <c r="F333">
-        <v>173.79</v>
+        <v>173.67</v>
       </c>
       <c r="G333">
         <v>105.34</v>
@@ -14441,13 +14444,13 @@
         <v>215.82</v>
       </c>
       <c r="I333">
-        <v>228.06</v>
+        <v>227.84</v>
       </c>
       <c r="J333">
-        <v>107.65</v>
+        <v>107.78</v>
       </c>
       <c r="K333">
-        <v>96.86</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="L333">
         <v>76.86</v>
@@ -14456,19 +14459,19 @@
         <v>120.69</v>
       </c>
       <c r="N333">
-        <v>92.25</v>
+        <v>91.63</v>
       </c>
       <c r="O333">
         <v>104.64</v>
       </c>
       <c r="P333">
-        <v>101.47</v>
+        <v>101.8</v>
       </c>
       <c r="Q333">
         <v>135.56</v>
       </c>
       <c r="R333">
-        <v>106.11</v>
+        <v>105.74</v>
       </c>
       <c r="S333">
         <v>75.81999999999999</v>
@@ -14956,7 +14959,7 @@
         <v>367</v>
       </c>
       <c r="B343">
-        <v>74.33</v>
+        <v>73.8</v>
       </c>
       <c r="E343">
         <v>137.61</v>
@@ -15009,52 +15012,105 @@
         <v>368</v>
       </c>
       <c r="B344">
-        <v>116.83</v>
+        <v>139.16</v>
       </c>
       <c r="E344">
-        <v>146.07</v>
+        <v>145.72</v>
       </c>
       <c r="F344">
-        <v>183.83</v>
+        <v>185.01</v>
       </c>
       <c r="G344">
-        <v>145.69</v>
+        <v>148.72</v>
       </c>
       <c r="H344">
-        <v>207.01</v>
+        <v>209.01</v>
       </c>
       <c r="I344">
-        <v>214.08</v>
+        <v>213.69</v>
       </c>
       <c r="J344">
-        <v>137.12</v>
+        <v>136.41</v>
       </c>
       <c r="K344">
-        <v>123.6</v>
+        <v>123.1</v>
       </c>
       <c r="L344">
         <v>89.59999999999999</v>
       </c>
       <c r="M344">
-        <v>130.12</v>
+        <v>129.22</v>
       </c>
       <c r="N344">
-        <v>109.43</v>
+        <v>109.14</v>
       </c>
       <c r="O344">
-        <v>122.39</v>
+        <v>122.41</v>
       </c>
       <c r="P344">
-        <v>203.34</v>
+        <v>203.84</v>
       </c>
       <c r="Q344">
-        <v>149.65</v>
+        <v>148.32</v>
       </c>
       <c r="R344">
-        <v>127.13</v>
+        <v>124.82</v>
       </c>
       <c r="S344">
-        <v>113.01</v>
+        <v>113.87</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19">
+      <c r="A345" t="s">
+        <v>369</v>
+      </c>
+      <c r="B345">
+        <v>125.64</v>
+      </c>
+      <c r="E345">
+        <v>150.58</v>
+      </c>
+      <c r="F345">
+        <v>196.2</v>
+      </c>
+      <c r="G345">
+        <v>164.92</v>
+      </c>
+      <c r="H345">
+        <v>197.88</v>
+      </c>
+      <c r="I345">
+        <v>222.01</v>
+      </c>
+      <c r="J345">
+        <v>139.77</v>
+      </c>
+      <c r="K345">
+        <v>130.09</v>
+      </c>
+      <c r="L345">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="M345">
+        <v>130.75</v>
+      </c>
+      <c r="N345">
+        <v>114.53</v>
+      </c>
+      <c r="O345">
+        <v>125.98</v>
+      </c>
+      <c r="P345">
+        <v>199.51</v>
+      </c>
+      <c r="Q345">
+        <v>150.24</v>
+      </c>
+      <c r="R345">
+        <v>136.4</v>
+      </c>
+      <c r="S345">
+        <v>111.61</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/1/Ventas comercio 1993 a 2021 - Mensual.xlsx
+++ b/11/1/1/Ventas comercio 1993 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="371">
   <si>
     <t>Serie</t>
   </si>
@@ -1124,6 +1124,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ345"/>
+  <dimension ref="A1:AJ346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15065,7 +15068,7 @@
         <v>369</v>
       </c>
       <c r="B345">
-        <v>125.64</v>
+        <v>125.23</v>
       </c>
       <c r="E345">
         <v>150.58</v>
@@ -15111,6 +15114,14 @@
       </c>
       <c r="S345">
         <v>111.61</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19">
+      <c r="A346" t="s">
+        <v>370</v>
+      </c>
+      <c r="B346">
+        <v>114.93</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/1/Ventas comercio 1993 a 2021 - Mensual.xlsx
+++ b/11/1/1/Ventas comercio 1993 a 2021 - Mensual.xlsx
@@ -14488,10 +14488,10 @@
         <v>76.66</v>
       </c>
       <c r="E334">
-        <v>119.29</v>
+        <v>119.51</v>
       </c>
       <c r="F334">
-        <v>166.88</v>
+        <v>166.92</v>
       </c>
       <c r="G334">
         <v>148.18</v>
@@ -14500,13 +14500,13 @@
         <v>236.76</v>
       </c>
       <c r="I334">
-        <v>178.34</v>
+        <v>178.42</v>
       </c>
       <c r="J334">
-        <v>108.02</v>
+        <v>108.28</v>
       </c>
       <c r="K334">
-        <v>101.62</v>
+        <v>102.97</v>
       </c>
       <c r="L334">
         <v>63.8</v>
@@ -14524,13 +14524,13 @@
         <v>113.81</v>
       </c>
       <c r="Q334">
-        <v>132.28</v>
+        <v>132.48</v>
       </c>
       <c r="R334">
-        <v>103.68</v>
+        <v>104.03</v>
       </c>
       <c r="S334">
-        <v>95.8</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="335" spans="1:19">
@@ -15071,49 +15071,49 @@
         <v>125.23</v>
       </c>
       <c r="E345">
-        <v>150.58</v>
+        <v>149.54</v>
       </c>
       <c r="F345">
-        <v>196.2</v>
+        <v>194.25</v>
       </c>
       <c r="G345">
-        <v>164.92</v>
+        <v>164.68</v>
       </c>
       <c r="H345">
-        <v>197.88</v>
+        <v>197.61</v>
       </c>
       <c r="I345">
-        <v>222.01</v>
+        <v>218.56</v>
       </c>
       <c r="J345">
-        <v>139.77</v>
+        <v>138.95</v>
       </c>
       <c r="K345">
-        <v>130.09</v>
+        <v>128.65</v>
       </c>
       <c r="L345">
         <v>91.59999999999999</v>
       </c>
       <c r="M345">
-        <v>130.75</v>
+        <v>130.53</v>
       </c>
       <c r="N345">
-        <v>114.53</v>
+        <v>114.6</v>
       </c>
       <c r="O345">
-        <v>125.98</v>
+        <v>125.3</v>
       </c>
       <c r="P345">
-        <v>199.51</v>
+        <v>198.46</v>
       </c>
       <c r="Q345">
-        <v>150.24</v>
+        <v>148.94</v>
       </c>
       <c r="R345">
-        <v>136.4</v>
+        <v>134.74</v>
       </c>
       <c r="S345">
-        <v>111.61</v>
+        <v>112</v>
       </c>
     </row>
     <row r="346" spans="1:19">
@@ -15122,6 +15122,51 @@
       </c>
       <c r="B346">
         <v>114.93</v>
+      </c>
+      <c r="E346">
+        <v>143.33</v>
+      </c>
+      <c r="F346">
+        <v>178.22</v>
+      </c>
+      <c r="G346">
+        <v>167.87</v>
+      </c>
+      <c r="H346">
+        <v>163.74</v>
+      </c>
+      <c r="I346">
+        <v>187.63</v>
+      </c>
+      <c r="J346">
+        <v>135.06</v>
+      </c>
+      <c r="K346">
+        <v>123.46</v>
+      </c>
+      <c r="L346">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="M346">
+        <v>133.93</v>
+      </c>
+      <c r="N346">
+        <v>126.82</v>
+      </c>
+      <c r="O346">
+        <v>119.94</v>
+      </c>
+      <c r="P346">
+        <v>186.59</v>
+      </c>
+      <c r="Q346">
+        <v>142.93</v>
+      </c>
+      <c r="R346">
+        <v>127.76</v>
+      </c>
+      <c r="S346">
+        <v>105.29</v>
       </c>
     </row>
   </sheetData>
